--- a/backend/conversations.xlsx
+++ b/backend/conversations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>customer_id</t>
   </si>
@@ -108,6 +108,11 @@
     <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks retention:
 "Bagaimana pengalaman Anda dengan layanan kami sejauh ini, dan apa yang menurut Anda bisa kami perbaiki untuk memastikan Anda tetap menjadi pelanggan setia kami?"
 Jika Anda tertarik, kami juga memiliki promo menarik untuk layanan Iconnet yang mungkin bisa meningkatkan pengalaman Anda!</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah pertanyaan yang bisa diajukan dalam konteks telecollection:
+"Bagaimana cara efektif untuk menjaga hubungan baik dengan pelanggan saat melakukan penagihan melalui telecollection?"
+Jika ada yang ingin Anda diskusikan lebih lanjut tentang telecollection atau layanan lain, jangan ragu untuk bertanya! Dan jika Anda tertarik, kami juga memiliki promo menarik untuk layanan Iconnet yang mungkin bisa Anda manfaatkan.</t>
   </si>
 </sst>
 </file>
@@ -465,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,6 +644,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/conversations.xlsx
+++ b/backend/conversations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>customer_id</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>ICON12345</t>
+  </si>
+  <si>
+    <t>ICON12</t>
   </si>
   <si>
     <t>telecollection</t>
@@ -108,6 +111,61 @@
     <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks retention:
 "Bagaimana pengalaman Anda dengan layanan kami sejauh ini, dan apa yang menurut Anda bisa kami perbaiki untuk memastikan Anda tetap menjadi pelanggan setia kami?"
 Jika Anda tertarik, kami juga memiliki promo menarik untuk layanan Iconnet yang mungkin bisa meningkatkan pengalaman Anda!</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection:
+"Bagaimana strategi yang efektif untuk meningkatkan tingkat keberhasilan dalam proses telecollection, terutama dalam berkomunikasi dengan pelanggan yang memiliki tunggakan pembayaran?"
+Jika Anda juga tertarik, kami memiliki promo menarik untuk layanan Iconnet yang dapat membantu meningkatkan konektivitas dan produktivitas bisnis Anda. Apakah Anda ingin tahu lebih lanjut?</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection:
+"Bagaimana strategi telecollection yang efektif dapat membantu perusahaan dalam meningkatkan rasio penagihan piutang yang tertunggak?"
+Jika Anda juga tertarik, kami memiliki promo menarik dari Iconnet yang bisa mendukung kebutuhan internet Anda selama proses telecollection. Apakah Anda ingin tahu lebih lanjut?</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan yang dapat diajukan dalam konteks telecollection:
+"Bagaimana cara tim telecollection memastikan bahwa proses penagihan tetap bersifat sopan dan profesional, sambil tetap mencapai target yang ditetapkan?"
+Jika Anda memiliki pertanyaan lain atau butuh informasi lebih lanjut, jangan ragu untuk bertanya! Selain itu, jika Anda tertarik dengan layanan internet yang lebih cepat dan stabil, kami juga memiliki promo Iconnet yang mungkin sesuai untuk Anda.</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan yang bisa diajukan dalam konteks telecollection:
+"Bagaimana cara memastikan bahwa proses telecollection dilakukan secara etis dan sesuai dengan regulasi yang berlaku, terutama dalam menjaga privasi data nasabah?"
+Jika Anda membutuhkan informasi lebih lanjut tentang layanan kami atau promo Iconnet, silakan beri tahu!</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks telecollection:
+"Bagaimana cara Anda memastikan bahwa proses telecollection tetap efektif dan menjaga hubungan baik dengan pelanggan yang memiliki tunggakan?"
+Jika Anda membutuhkan informasi lebih lanjut atau ingin tahu tentang promo Iconnet yang mungkin bisa membantu, silakan beri tahu!</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection dalam konteks pengumpulan pembayaran:
+"Bagaimana cara tim telecollection Anda memastikan pendekatan yang ramah dan efektif saat berkomunikasi dengan pelanggan yang memiliki tunggakan pembayaran?"
+Jika Anda tertarik, kami juga memiliki promo Iconnet yang mungkin bisa membantu Anda mendapatkan akses internet yang lebih baik untuk kebutuhan bisnis Anda. Apakah Anda ingin tahu lebih lanjut?</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut satu pertanyaan untuk topik telecollection:
+"Bagaimana strategi yang paling efektif dalam melakukan telecollection untuk memastikan pengembalian piutang yang optimal sambil tetap menjaga hubungan baik dengan pelanggan?"
+Jika Anda memerlukan informasi lebih lanjut tentang layanan kami atau promo Iconnet, jangan ragu untuk bertanya!</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection: 
+"Bagaimana efektivitas strategi telecollection yang diterapkan dalam meningkatkan tingkat pengembalian pembayaran dari pelanggan yang memiliki tunggakan?"
+Jika Anda memerlukan informasi lebih lanjut atau ada yang ingin ditanyakan seputar layanan kami, jangan ragu untuk bertanya! Dan jangan lupa, kami juga memiliki promo menarik untuk layanan Iconnet yang mungkin Anda suka.</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan yang dapat digunakan dalam konteks telecollection:
+"Bagaimana cara Anda mengevaluasi efektivitas strategi telecollection yang diterapkan dalam menindaklanjuti pembayaran pelanggan yang tertunda?"
+Jika Anda memiliki pertanyaan lebih lanjut atau membutuhkan informasi lain seputar layanan kami, jangan ragu untuk bertanya! Selain itu, kami juga memiliki promo menarik untuk layanan Iconnet yang mungkin Anda suka.</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan yang dapat digunakan dalam konteks retention:
+"Menurut Anda, faktor apa yang paling berpengaruh dalam mempertahankan pelanggan setia di perusahaan kami?"
+Jika Anda tertarik, kami juga memiliki promo menarik dari Iconnet yang mungkin bisa membantu meningkatkan pengalaman pelanggan Anda!</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan yang dapat digunakan untuk topik telecollection:
+"Bagaimana Anda biasanya mengelola proses telecollection untuk memastikan bahwa pelanggan merasa dihargai dan tidak tertekan saat mengingatkan mereka tentang pembayaran yang tertunda?"
+Jika Anda ingin informasi lebih lanjut atau tips tentang telecollection, silakan beri tahu saya!</t>
   </si>
 </sst>
 </file>
@@ -465,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,10 +548,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -501,10 +559,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -512,10 +570,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -523,10 +581,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -534,10 +592,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -545,10 +603,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -556,10 +614,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -567,10 +625,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -578,10 +636,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -589,10 +647,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -600,10 +658,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -611,10 +669,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -622,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -633,10 +691,131 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/conversations.xlsx
+++ b/backend/conversations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>customer_id</t>
   </si>
@@ -166,6 +166,11 @@
     <t>Tentu! Berikut adalah satu pertanyaan yang dapat digunakan untuk topik telecollection:
 "Bagaimana Anda biasanya mengelola proses telecollection untuk memastikan bahwa pelanggan merasa dihargai dan tidak tertekan saat mengingatkan mereka tentang pembayaran yang tertunda?"
 Jika Anda ingin informasi lebih lanjut atau tips tentang telecollection, silakan beri tahu saya!</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks telecollection:
+"Bagaimana cara tim telecollection memastikan komunikasi yang efektif dan ramah dengan pelanggan agar dapat menyelesaikan masalah pembayaran dengan baik?"
+Jika Anda membutuhkan informasi lebih lanjut tentang layanan kami atau promo Iconnet, jangan ragu untuk bertanya!</t>
   </si>
 </sst>
 </file>
@@ -523,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -818,6 +823,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/conversations.xlsx
+++ b/backend/conversations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>customer_id</t>
   </si>
@@ -171,6 +171,11 @@
     <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks telecollection:
 "Bagaimana cara tim telecollection memastikan komunikasi yang efektif dan ramah dengan pelanggan agar dapat menyelesaikan masalah pembayaran dengan baik?"
 Jika Anda membutuhkan informasi lebih lanjut tentang layanan kami atau promo Iconnet, jangan ragu untuk bertanya!</t>
+  </si>
+  <si>
+    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan untuk topik retention:
+"Bagaimana strategi yang Anda gunakan untuk meningkatkan kepuasan pelanggan dan mencegah churn di antara pengguna layanan Anda?"
+Jika Anda tertarik, kami juga memiliki promo menarik untuk layanan Iconnet yang bisa membantu meningkatkan pengalaman Anda. Apakah Anda ingin tahu lebih lanjut?</t>
   </si>
 </sst>
 </file>
@@ -528,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,6 +839,17 @@
         <v>34</v>
       </c>
     </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/conversations.xlsx
+++ b/backend/conversations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>customer_id</t>
   </si>
@@ -31,151 +31,13 @@
     <t>extra</t>
   </si>
   <si>
-    <t>ICON12345</t>
-  </si>
-  <si>
     <t>ICON12</t>
   </si>
   <si>
     <t>telecollection</t>
   </si>
   <si>
-    <t>retention</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection dalam konteks yang mungkin Anda maksud:
-"Bagaimana strategi terbaik dalam melakukan telecollection untuk memastikan bahwa pelanggan merasa nyaman dan terbuka dalam berdiskusi mengenai tunggakan mereka?"
-Jika Anda membutuhkan informasi lebih lanjut atau bantuan lainnya, jangan ragu untuk bertanya! Dan jangan lupa, kami juga memiliki promo menarik untuk layanan Iconnet yang mungkin bisa Anda manfaatkan.</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection:
-"Bagaimana efektivitas strategi telecollection dalam meningkatkan tingkat pengumpulan piutang dibandingkan dengan metode penagihan tradisional?"
-Jika Anda tertarik, kami juga memiliki promo menarik untuk layanan Iconnet yang bisa mendukung bisnis Anda. Apakah Anda ingin tahu lebih lanjut?</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection:
-"Bagaimana proses telecollection dapat membantu meningkatkan efisiensi dalam penagihan piutang perusahaan Anda?"
-Jika Anda tertarik, kami juga memiliki promo menarik dari Iconnet yang dapat mendukung kebutuhan bisnis Anda!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks telecollection:
-"Bagaimana cara efektif untuk melakukan penagihan utang melalui telecollection tanpa mengganggu hubungan baik dengan pelanggan?"
-Jika Anda memiliki kebutuhan khusus atau informasi lebih lanjut tentang telecollection, jangan ragu untuk bertanya! Selain itu, jika Anda tertarik, kami juga memiliki promo menarik untuk layanan Iconnet yang bisa membantu mendukung bisnis Anda.</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks telecollection:
-"Bagaimana cara efektif untuk mengelola komunikasi dengan pelanggan yang memiliki tunggakan pembayaran melalui telecollection, agar tetap menjaga hubungan baik dan mendorong penyelesaian utang?" 
-Jika Anda juga tertarik, kami memiliki promo Iconnet yang bisa membantu Anda mendapatkan akses internet yang lebih cepat dan stabil. Apakah Anda ingin tahu lebih lanjut?</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa diajukan dalam konteks telecollection:
-"Bagaimana cara efektif untuk meningkatkan tingkat pengumpulan pembayaran melalui telecollection tanpa mengganggu hubungan baik dengan pelanggan?"
-Jika Anda membutuhkan informasi lebih lanjut atau tips terkait telecollection, jangan ragu untuk bertanya! Selain itu, jika Anda juga sedang mencari solusi internet yang cepat dan stabil, saya dapat menawarkan promo Iconnet yang mungkin cocok untuk Anda.</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks telecollection:
-"Bagaimana cara efektif untuk memfasilitasi komunikasi dengan nasabah yang memiliki tunggakan pembayaran melalui telecollection, agar mereka merasa nyaman dan terbuka untuk menyelesaikan kewajiban mereka?"
-Jika Anda membutuhkan informasi lebih lanjut atau promo menarik dari Iconnet, jangan ragu untuk bertanya!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks telecollection:
-"Bagaimana cara Anda memastikan komunikasi yang efektif dan sopan saat menghubungi pelanggan untuk penagihan utang melalui telecollection?"
-Jika Anda membutuhkan informasi lebih lanjut tentang layanan telecollection atau ada yang ingin ditanyakan, jangan ragu untuk menghubungi kami! Selain itu, kami juga memiliki promo menarik untuk layanan Iconnet yang mungkin bisa Anda manfaatkan.</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang dapat digunakan dalam konteks telecollection:
-"Bagaimana Anda mengevaluasi efektivitas strategi telecollection yang saat ini diterapkan dalam mengelola piutang yang belum dibayar?"
-Jika Anda memerlukan informasi lebih lanjut atau bantuan lainnya, jangan ragu untuk bertanya! Dan jika Anda tertarik dengan promo Iconnet, saya bisa membantu memberikan informasi lebih lanjut.</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks telecollection:
-"Bagaimana pengalaman Anda dalam berinteraksi dengan tim telecollection kami, dan apakah ada saran untuk meningkatkan proses komunikasi dan penagihan utang yang lebih efektif?"
-Jika Anda juga tertarik, kami memiliki promo Iconnet yang bisa memberikan Anda koneksi internet yang lebih cepat dan stabil. Apakah Anda ingin tahu lebih lanjut tentang promo tersebut?</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang dapat digunakan dalam konteks telecollection:
-"Bagaimana cara kami dapat meningkatkan pengalaman pelanggan dalam proses telecollection agar mereka merasa lebih nyaman dan terlayani dengan baik?"
-Jika Anda tertarik dengan layanan internet yang stabil untuk mendukung proses telecollection Anda, jangan ragu untuk menanyakan tentang promo Iconnet yang mungkin bisa membantu!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah pertanyaan yang dapat digunakan untuk topik telecollection:
-"Bagaimana metode telecollection yang efektif dapat meningkatkan tingkat pembayaran tepat waktu dari pelanggan yang memiliki tunggakan?" 
-Jika Anda membutuhkan informasi lebih lanjut tentang telecollection atau layanan kami, jangan ragu untuk bertanya!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang dapat digunakan untuk topik telecollection:
-"Bagaimana strategi telecollection yang efektif dapat meningkatkan tingkat pengembalian piutang tanpa mengganggu hubungan baik dengan pelanggan?"
-Jika Anda memerlukan informasi lebih lanjut tentang telecollection atau layanan lain, jangan ragu untuk bertanya! Selain itu, jika Anda mencari solusi internet yang cepat dan stabil, kami juga memiliki promo menarik untuk Iconnet yang mungkin Anda suka!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks retention:
-"Bagaimana pengalaman Anda dengan layanan kami sejauh ini, dan apa yang menurut Anda bisa kami perbaiki untuk memastikan Anda tetap menjadi pelanggan setia kami?"
-Jika Anda tertarik, kami juga memiliki promo menarik untuk layanan Iconnet yang mungkin bisa meningkatkan pengalaman Anda!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection:
-"Bagaimana strategi yang efektif untuk meningkatkan tingkat keberhasilan dalam proses telecollection, terutama dalam berkomunikasi dengan pelanggan yang memiliki tunggakan pembayaran?"
-Jika Anda juga tertarik, kami memiliki promo menarik untuk layanan Iconnet yang dapat membantu meningkatkan konektivitas dan produktivitas bisnis Anda. Apakah Anda ingin tahu lebih lanjut?</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection:
-"Bagaimana strategi telecollection yang efektif dapat membantu perusahaan dalam meningkatkan rasio penagihan piutang yang tertunggak?"
-Jika Anda juga tertarik, kami memiliki promo menarik dari Iconnet yang bisa mendukung kebutuhan internet Anda selama proses telecollection. Apakah Anda ingin tahu lebih lanjut?</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang dapat diajukan dalam konteks telecollection:
-"Bagaimana cara tim telecollection memastikan bahwa proses penagihan tetap bersifat sopan dan profesional, sambil tetap mencapai target yang ditetapkan?"
-Jika Anda memiliki pertanyaan lain atau butuh informasi lebih lanjut, jangan ragu untuk bertanya! Selain itu, jika Anda tertarik dengan layanan internet yang lebih cepat dan stabil, kami juga memiliki promo Iconnet yang mungkin sesuai untuk Anda.</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa diajukan dalam konteks telecollection:
-"Bagaimana cara memastikan bahwa proses telecollection dilakukan secara etis dan sesuai dengan regulasi yang berlaku, terutama dalam menjaga privasi data nasabah?"
-Jika Anda membutuhkan informasi lebih lanjut tentang layanan kami atau promo Iconnet, silakan beri tahu!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks telecollection:
-"Bagaimana cara Anda memastikan bahwa proses telecollection tetap efektif dan menjaga hubungan baik dengan pelanggan yang memiliki tunggakan?"
-Jika Anda membutuhkan informasi lebih lanjut atau ingin tahu tentang promo Iconnet yang mungkin bisa membantu, silakan beri tahu!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection dalam konteks pengumpulan pembayaran:
-"Bagaimana cara tim telecollection Anda memastikan pendekatan yang ramah dan efektif saat berkomunikasi dengan pelanggan yang memiliki tunggakan pembayaran?"
-Jika Anda tertarik, kami juga memiliki promo Iconnet yang mungkin bisa membantu Anda mendapatkan akses internet yang lebih baik untuk kebutuhan bisnis Anda. Apakah Anda ingin tahu lebih lanjut?</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut satu pertanyaan untuk topik telecollection:
-"Bagaimana strategi yang paling efektif dalam melakukan telecollection untuk memastikan pengembalian piutang yang optimal sambil tetap menjaga hubungan baik dengan pelanggan?"
-Jika Anda memerlukan informasi lebih lanjut tentang layanan kami atau promo Iconnet, jangan ragu untuk bertanya!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan untuk topik telecollection: 
-"Bagaimana efektivitas strategi telecollection yang diterapkan dalam meningkatkan tingkat pengembalian pembayaran dari pelanggan yang memiliki tunggakan?"
-Jika Anda memerlukan informasi lebih lanjut atau ada yang ingin ditanyakan seputar layanan kami, jangan ragu untuk bertanya! Dan jangan lupa, kami juga memiliki promo menarik untuk layanan Iconnet yang mungkin Anda suka.</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang dapat digunakan dalam konteks telecollection:
-"Bagaimana cara Anda mengevaluasi efektivitas strategi telecollection yang diterapkan dalam menindaklanjuti pembayaran pelanggan yang tertunda?"
-Jika Anda memiliki pertanyaan lebih lanjut atau membutuhkan informasi lain seputar layanan kami, jangan ragu untuk bertanya! Selain itu, kami juga memiliki promo menarik untuk layanan Iconnet yang mungkin Anda suka.</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang dapat digunakan dalam konteks retention:
-"Menurut Anda, faktor apa yang paling berpengaruh dalam mempertahankan pelanggan setia di perusahaan kami?"
-Jika Anda tertarik, kami juga memiliki promo menarik dari Iconnet yang mungkin bisa membantu meningkatkan pengalaman pelanggan Anda!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang dapat digunakan untuk topik telecollection:
-"Bagaimana Anda biasanya mengelola proses telecollection untuk memastikan bahwa pelanggan merasa dihargai dan tidak tertekan saat mengingatkan mereka tentang pembayaran yang tertunda?"
-Jika Anda ingin informasi lebih lanjut atau tips tentang telecollection, silakan beri tahu saya!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan dalam konteks telecollection:
-"Bagaimana cara tim telecollection memastikan komunikasi yang efektif dan ramah dengan pelanggan agar dapat menyelesaikan masalah pembayaran dengan baik?"
-Jika Anda membutuhkan informasi lebih lanjut tentang layanan kami atau promo Iconnet, jangan ragu untuk bertanya!</t>
-  </si>
-  <si>
-    <t>Tentu! Berikut adalah satu pertanyaan yang bisa digunakan untuk topik retention:
-"Bagaimana strategi yang Anda gunakan untuk meningkatkan kepuasan pelanggan dan mencegah churn di antara pengguna layanan Anda?"
-Jika Anda tertarik, kami juga memiliki promo menarik untuk layanan Iconnet yang bisa membantu meningkatkan pengalaman Anda. Apakah Anda ingin tahu lebih lanjut?</t>
+    <t>{'model_local': 'Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?', 'confidence': 0.6157489952951654}</t>
   </si>
 </sst>
 </file>
@@ -533,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,11 +419,14 @@
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,10 +434,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -580,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +456,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -602,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -613,10 +478,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -624,10 +489,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -635,219 +500,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/conversations.xlsx
+++ b/backend/conversations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="11">
   <si>
     <t>customer_id</t>
   </si>
@@ -37,7 +37,16 @@
     <t>telecollection</t>
   </si>
   <si>
+    <t>retention</t>
+  </si>
+  <si>
     <t>{'model_local': 'Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?', 'confidence': 0.6157489952951654}</t>
+  </si>
+  <si>
+    <t>Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?</t>
+  </si>
+  <si>
+    <t>{'question': 'Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?', 'options': ['Nomor Telepon Salah', 'Rejected', 'Nomor Tidak Aktif', 'Sudah Berhenti Berlangganan', 'Gangguan Jaringan', 'Tidak Respon', 'Tidak Ada Gangguan', 'Tidak Ada ', 'Berhenti Berlangganan', 'Bukan Saya', 'belum']}</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -470,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -481,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -492,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -503,7 +512,975 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/conversations.xlsx
+++ b/backend/conversations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="20">
   <si>
     <t>customer_id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>retention</t>
   </si>
   <si>
+    <t>winback</t>
+  </si>
+  <si>
     <t>{'model_local': 'Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?', 'confidence': 0.6157489952951654}</t>
   </si>
   <si>
@@ -47,6 +50,30 @@
   </si>
   <si>
     <t>{'question': 'Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?', 'options': ['Nomor Telepon Salah', 'Rejected', 'Nomor Tidak Aktif', 'Sudah Berhenti Berlangganan', 'Gangguan Jaringan', 'Tidak Respon', 'Tidak Ada Gangguan', 'Tidak Ada ', 'Berhenti Berlangganan', 'Bukan Saya', 'belum']}</t>
+  </si>
+  <si>
+    <t>Belum tersedia</t>
+  </si>
+  <si>
+    <t>{'question': 'nan', 'options': ['Nomor Telepon Salah'], 'confidence': None, 'source': 'model_cs', 'is_last': False}</t>
+  </si>
+  <si>
+    <t>{'question': 'nan', 'options': ['baik bapak/ibu kami konfirmasi ulang bahwa bapak/Ibu berhenti berlanggananya. terimakasih atas waktunya, mohon maaf mengganggu selamat pagi/siang/sore.', 'baik bapak/ibu terimakasih atas waktu dan konfirmasinya,  mohon maaf mengganggu\xa0\nselamat\xa0pagi/siang/sore.', 'terimakasih atas waktunya. mohon maaf mengganggu, selamat pagi/siang/sore.'], 'confidence': None, 'source': 'model_cs', 'is_last': False}</t>
+  </si>
+  <si>
+    <t>{'question': 'Pertanyaan tidak tersedia. Percakapan selesai.', 'options': [], 'confidence': None, 'source': 'conversation_flow', 'is_last': True}</t>
+  </si>
+  <si>
+    <t>{'question': 'Selamat Pagi/Siang/Sore Perkenalkan Saya (Nama Agen) Dari ICONNET, Apakah Benar Saya Terhubung Dengan (Nama Pelanggan) ?, Baik Bapak/Ibu. Kami Melihat Bahwa Layanan ICONNET Bapak/Ibu Sedang Terputus dan Kami Ingin Tahu Apakah Ada Kendala Yang Bisa Kami Bantu?', 'options': ['belum'], 'confidence': None, 'source': 'conversation_flow', 'is_last': False}</t>
+  </si>
+  <si>
+    <t>Bisa Dihubungi</t>
+  </si>
+  <si>
+    <t>Tidak Dapat Dihubungi</t>
+  </si>
+  <si>
+    <t>Mode: Telecollection | Status_Dihubungi: Bisa Dihubungi</t>
   </si>
 </sst>
 </file>
@@ -404,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -468,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -490,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -501,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -523,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -534,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -545,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -556,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -567,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -578,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -589,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -600,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -611,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -622,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -633,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -644,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -655,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -666,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -677,7 +704,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -688,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -699,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -710,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -721,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -732,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -743,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -754,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -765,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -776,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -787,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -798,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -809,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -820,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -831,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -842,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -853,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -864,7 +891,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -875,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -886,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -897,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -908,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -919,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -930,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -941,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -952,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -963,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -974,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -985,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -996,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1007,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1018,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1029,7 +1056,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1040,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1051,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1062,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1073,7 +1100,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1084,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1095,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1106,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1117,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1128,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1139,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1150,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1161,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1172,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1183,7 +1210,7 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1194,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1205,7 +1232,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1216,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1227,7 +1254,7 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1238,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1249,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1260,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1271,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1282,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1293,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1304,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1315,7 +1342,7 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1326,7 +1353,7 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1337,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1348,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1359,7 +1386,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1370,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1381,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1392,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1403,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1414,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1425,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1436,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1447,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1458,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1469,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1480,7 +1507,1020 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
